--- a/src/test/resources/exel.xlsx
+++ b/src/test/resources/exel.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfredcohort11\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769F354B-8CF1-4277-9B57-9B23B1361E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1822C15-4C78-4680-A452-FA89FFA8DB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,40 +33,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>standard_use</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>samuel_user</t>
+  </si>
+  <si>
+    <t>mrgradeyu</t>
+  </si>
+  <si>
+    <t>standard_user</t>
   </si>
   <si>
     <t>secret_sauce</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>snammdhs</t>
-  </si>
-  <si>
-    <t>hshdhdyyhs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,9 +84,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,33 +422,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>

--- a/src/test/resources/exel.xlsx
+++ b/src/test/resources/exel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27823"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1822C15-4C78-4680-A452-FA89FFA8DB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE134C17-3872-4FBE-8715-3DCC489BC8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>iven</t>
+  </si>
+  <si>
+    <t>lenyrtuia000</t>
+  </si>
+  <si>
+    <t>ramose</t>
+  </si>
+  <si>
+    <t>mr@oopyt</t>
+  </si>
+  <si>
+    <t>cheune</t>
+  </si>
+  <si>
+    <t>lesmen78</t>
   </si>
   <si>
     <t>samuel_user</t>
@@ -420,9 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -454,6 +474,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
